--- a/outputs/ML_Results/dist_LR/All_short_table.xlsx
+++ b/outputs/ML_Results/dist_LR/All_short_table.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\projects\sufficcs_mobility\outputs\ML_Results\dist_LR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{655CFBC9-A8A2-4EAC-89F7-AFD93FE0ADF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADFA506-7854-4FC2-A640-3B210E739C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_short" sheetId="1" r:id="rId1"/>
-    <sheet name="table" sheetId="2" r:id="rId2"/>
+    <sheet name="All_short_table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="35">
   <si>
     <t>city</t>
   </si>
@@ -53,27 +53,27 @@
     <t>UrbPopDensity_res</t>
   </si>
   <si>
+    <t>IntersecDensity_res</t>
+  </si>
+  <si>
+    <t>street_length_res</t>
+  </si>
+  <si>
+    <t>LU_UrbFab_res</t>
+  </si>
+  <si>
+    <t>LU_Comm_res</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
     <t>UrbBuildDensity_res</t>
   </si>
   <si>
-    <t>IntersecDensity_res</t>
-  </si>
-  <si>
-    <t>street_length_res</t>
-  </si>
-  <si>
-    <t>LU_UrbFab_res</t>
-  </si>
-  <si>
-    <t>LU_Comm_res</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>Madrid</t>
-  </si>
-  <si>
     <t>Wien</t>
   </si>
   <si>
@@ -123,12 +123,15 @@
   </si>
   <si>
     <t>Commercial area (%)</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -621,13 +624,13 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -673,18 +676,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -993,14 +985,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:C61"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1024,10 +1020,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>25.594523080482301</v>
+        <v>27.309182016824199</v>
       </c>
       <c r="D2">
-        <v>2.3586979011657001E-3</v>
+        <v>3.2174103932282E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1038,10 +1034,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>76.027152566655104</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.8280804435204099E-5</v>
+        <v>73.852040169993003</v>
+      </c>
+      <c r="D3">
+        <v>1.164556461518E-4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1052,10 +1048,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>206.803371312932</v>
+        <v>209.34643195743499</v>
       </c>
       <c r="D4" s="1">
-        <v>8.3173748198795703E-23</v>
+        <v>1.02525786028157E-22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1065,8 +1061,11 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5">
+        <v>55.109003747609499</v>
+      </c>
       <c r="D5">
-        <v>0.10829950321045299</v>
+        <v>8.5927407615900203E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1076,19 +1075,11 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6">
+        <v>-1.1921143348452199</v>
+      </c>
       <c r="D6">
-        <v>0.42476197371851798</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>0.54030965169497702</v>
+        <v>0.35946429543645297</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1096,13 +1087,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>-21.542397877327002</v>
+        <v>-20.212577505392002</v>
       </c>
       <c r="D8">
-        <v>2.1789317832162001E-3</v>
+        <v>7.3697266460609999E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1110,10 +1101,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>-4.5181516238922201</v>
       </c>
       <c r="D9">
-        <v>0.14667771254211501</v>
+        <v>0.18723363180345901</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1121,10 +1115,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>2.2944565623762201</v>
       </c>
       <c r="D10">
-        <v>0.343726034231851</v>
+        <v>0.51609950980153796</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1132,274 +1129,279 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>-5.0103583473460302</v>
       </c>
       <c r="D11">
-        <v>0.38905848189172798</v>
+        <v>0.34837871932308201</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
+      <c r="C12">
+        <v>10.9821613424629</v>
+      </c>
       <c r="D12">
-        <v>0.68273233747574202</v>
+        <v>0.469315412110412</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13">
-        <v>99.188987316224498</v>
+        <v>91.058313443710105</v>
       </c>
       <c r="D13" s="1">
-        <v>1.27565579480852E-10</v>
+        <v>9.2893674321154097E-7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14">
-        <v>127.347682602204</v>
+        <v>129.76332517072001</v>
       </c>
       <c r="D14" s="1">
-        <v>2.93615732192634E-8</v>
+        <v>4.68856547560742E-7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15">
-        <v>73.091914982448003</v>
+        <v>57.518752933194101</v>
       </c>
       <c r="D15">
-        <v>2.02729920490059E-2</v>
+        <v>0.125911693880706</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2">
-        <v>-2.1871179690954302E-2</v>
+      <c r="C16">
+        <v>-0.58723592238934996</v>
       </c>
       <c r="D16">
-        <v>8.46232941881188E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>40.352438007295802</v>
-      </c>
-      <c r="D17">
-        <v>3.0792726067125201E-2</v>
+        <v>0.56801216236253504</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>2.58460408701748</v>
       </c>
       <c r="D18">
-        <v>0.46786202563611801</v>
+        <v>0.62601977561069799</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>-5.6864132060141896</v>
       </c>
       <c r="D19">
-        <v>0.62056764098873896</v>
+        <v>0.435315599845707</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>-3.3945348300280398</v>
       </c>
       <c r="D20">
-        <v>0.68643417647640903</v>
+        <v>0.53222386647112896</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>-9.2262448387615503</v>
       </c>
       <c r="D21">
-        <v>0.10662193673703101</v>
+        <v>0.247598243917377</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
+      <c r="C22">
+        <v>15.5748211636508</v>
+      </c>
       <c r="D22">
-        <v>0.22529235719962101</v>
+        <v>0.27373665386099799</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23">
-        <v>48.313427329785704</v>
+        <v>48.800376199190602</v>
       </c>
       <c r="D23" s="1">
-        <v>4.4159676702120204E-6</v>
+        <v>1.13520574850403E-5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24">
-        <v>116.636727272144</v>
+        <v>116.758013572576</v>
       </c>
       <c r="D24" s="1">
-        <v>2.1185509841623201E-26</v>
+        <v>1.41919913962231E-25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25">
-        <v>150.67392540020299</v>
+        <v>149.26520697452301</v>
       </c>
       <c r="D25" s="1">
-        <v>7.5732373914844994E-12</v>
+        <v>4.30277976573908E-10</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="2">
-        <v>-1.3420236308675899E-2</v>
+      <c r="C26">
+        <v>-1.4633039368463101</v>
       </c>
       <c r="D26">
-        <v>5.5021392191454098E-2</v>
+        <v>4.2750743444906703E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" t="s">
-        <v>10</v>
+      <c r="C27">
+        <v>-0.14334928492923399</v>
       </c>
       <c r="D27">
-        <v>0.75855879645659197</v>
+        <v>0.75355836244469099</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>-8.7407610152129003</v>
+        <v>-9.0672965747919001</v>
       </c>
       <c r="D28">
-        <v>1.23960906092812E-2</v>
+        <v>7.5438705316538002E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29">
-        <v>10.1060283867855</v>
+        <v>8.7653153436554891</v>
       </c>
       <c r="D29">
-        <v>4.6028143527719903E-2</v>
+        <v>7.9393293703582099E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>-5.8595048923623896</v>
       </c>
       <c r="D30">
-        <v>0.18237902268095901</v>
+        <v>0.232514613880003</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>-2.06280214205366</v>
       </c>
       <c r="D31">
-        <v>0.38605089972337098</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>0.51188854373734405</v>
+        <v>0.59818858859919299</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1410,10 +1412,10 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>245.90391438723401</v>
+        <v>281.79805314125599</v>
       </c>
       <c r="D33">
-        <v>4.6940646324941201E-2</v>
+        <v>1.38558441472294E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1423,19 +1425,11 @@
       <c r="B34" t="s">
         <v>7</v>
       </c>
+      <c r="C34">
+        <v>271.19435958559501</v>
+      </c>
       <c r="D34">
-        <v>0.52697614434337503</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <v>0.62426143184270899</v>
+        <v>6.2723929023661598E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1445,66 +1439,11 @@
       <c r="B36" t="s">
         <v>9</v>
       </c>
+      <c r="C36">
+        <v>-19.460842961633301</v>
+      </c>
       <c r="D36">
-        <v>0.26535646450789901</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>0.65648738309478005</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="2">
-        <v>-59.795572856470997</v>
-      </c>
-      <c r="D38">
-        <v>8.7858089603963296E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39">
-        <v>0.12162280442392399</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40">
-        <v>0.73251191939336702</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41">
-        <v>0.29766078184037598</v>
+        <v>4.92975812124095E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1514,8 +1453,11 @@
       <c r="B42" t="s">
         <v>5</v>
       </c>
+      <c r="C42">
+        <v>24.8756504421942</v>
+      </c>
       <c r="D42">
-        <v>0.39040246837305198</v>
+        <v>4.0891790016919498E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1526,10 +1468,10 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>77.119356412331399</v>
+        <v>94.196940868096405</v>
       </c>
       <c r="D43" s="1">
-        <v>1.3972101142487199E-12</v>
+        <v>1.0224398613305E-16</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1540,10 +1482,10 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>148.21602432713101</v>
+        <v>176.10648850735399</v>
       </c>
       <c r="D44" s="1">
-        <v>1.4157453936104101E-13</v>
+        <v>1.5271636364377799E-16</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1553,8 +1495,11 @@
       <c r="B45" t="s">
         <v>8</v>
       </c>
+      <c r="C45">
+        <v>20.866742163165199</v>
+      </c>
       <c r="D45">
-        <v>0.49917259700154198</v>
+        <v>0.50061065783310799</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1564,8 +1509,11 @@
       <c r="B46" t="s">
         <v>9</v>
       </c>
+      <c r="C46">
+        <v>-9.2332288482152602</v>
+      </c>
       <c r="D46">
-        <v>0.41072074555543098</v>
+        <v>5.5920093673255001E-3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1573,24 +1521,13 @@
         <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>4.8596584190239103</v>
       </c>
       <c r="D47">
-        <v>0.69933738654622801</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48">
-        <v>-22.367418651137498</v>
-      </c>
-      <c r="D48">
-        <v>1.7450433814780001E-4</v>
+        <v>0.73082594707829596</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1598,13 +1535,13 @@
         <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>9.8810638604447405</v>
+        <v>12.770815923544999</v>
       </c>
       <c r="D49">
-        <v>1.74323616165203E-2</v>
+        <v>2.9560925473696999E-3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1612,10 +1549,13 @@
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>-12.7920031475307</v>
       </c>
       <c r="D50">
-        <v>0.49642106610132303</v>
+        <v>5.0836936154970997E-3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1623,10 +1563,13 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>-21.938725528029799</v>
       </c>
       <c r="D51">
-        <v>0.16386394032786</v>
+        <v>7.7662967323047002E-3</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1636,8 +1579,11 @@
       <c r="B52" t="s">
         <v>5</v>
       </c>
+      <c r="C52">
+        <v>17.741063859894201</v>
+      </c>
       <c r="D52">
-        <v>0.13782831023782999</v>
+        <v>0.23291645676648201</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1648,10 +1594,10 @@
         <v>6</v>
       </c>
       <c r="C53">
-        <v>35.434972972793098</v>
+        <v>34.506392964382002</v>
       </c>
       <c r="D53">
-        <v>2.0106226324585002E-3</v>
+        <v>4.8795530925640103E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1662,10 +1608,10 @@
         <v>7</v>
       </c>
       <c r="C54">
-        <v>165.85830288313801</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1.93451550634194E-6</v>
+        <v>184.69673585466799</v>
+      </c>
+      <c r="D54">
+        <v>4.2085350610931199E-5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1675,8 +1621,11 @@
       <c r="B55" t="s">
         <v>8</v>
       </c>
+      <c r="C55">
+        <v>66.741182013587704</v>
+      </c>
       <c r="D55">
-        <v>0.28603883464908397</v>
+        <v>0.34575508017002898</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1686,8 +1635,11 @@
       <c r="B56" t="s">
         <v>9</v>
       </c>
+      <c r="C56">
+        <v>-2.9435706388108001</v>
+      </c>
       <c r="D56">
-        <v>0.442787945466876</v>
+        <v>0.375416743181056</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1695,21 +1647,13 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>65.944766146644895</v>
       </c>
       <c r="D57">
-        <v>0.70438981800828904</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58">
-        <v>0.25519450302753999</v>
+        <v>0.181978261545095</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1717,24 +1661,13 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>-2.3427306413354301</v>
       </c>
       <c r="D59">
-        <v>0.322273109358853</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60">
-        <v>-13.754289620636699</v>
-      </c>
-      <c r="D60">
-        <v>4.7143383093260299E-2</v>
+        <v>0.60139500209098895</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1742,67 +1675,61 @@
         <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61">
-        <v>-14.6466211639409</v>
+        <v>-19.7075942019829</v>
       </c>
       <c r="D61">
-        <v>3.00189758422055E-2</v>
+        <v>5.4448394635631898E-2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>0.05</formula>
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H3" sqref="H3:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1811,117 +1738,157 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>25.594523080482301</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+        <v>27.309182016824199</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10.9821613424629</v>
+      </c>
+      <c r="E3" s="4">
+        <v>15.5748211636508</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="4">
+        <v>24.8756504421942</v>
+      </c>
+      <c r="H3" s="4">
+        <v>17.741063859894201</v>
+      </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="4">
-        <v>76.027152566655104</v>
+        <v>73.852040169993003</v>
       </c>
       <c r="D4" s="4">
-        <v>99.188987316224498</v>
+        <v>91.058313443710105</v>
       </c>
       <c r="E4" s="4">
-        <v>48.313427329785704</v>
-      </c>
-      <c r="F4" s="4">
-        <v>245.90391438723401</v>
+        <v>48.800376199190602</v>
+      </c>
+      <c r="F4" s="8">
+        <v>281.79805314125599</v>
       </c>
       <c r="G4" s="4">
-        <v>77.119356412331399</v>
+        <v>94.196940868096405</v>
       </c>
       <c r="H4" s="4">
-        <v>35.434972972793098</v>
+        <v>34.506392964382002</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4">
-        <v>206.803371312932</v>
-      </c>
-      <c r="D5" s="4">
-        <v>127.347682602204</v>
-      </c>
-      <c r="E5" s="4">
-        <v>116.636727272144</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
-        <v>148.21602432713101</v>
-      </c>
-      <c r="H5" s="4">
-        <v>165.85830288313801</v>
+      <c r="C5" s="8">
+        <v>209.34643195743499</v>
+      </c>
+      <c r="D5" s="8">
+        <v>129.76332517072001</v>
+      </c>
+      <c r="E5" s="8">
+        <v>116.758013572576</v>
+      </c>
+      <c r="F5" s="8">
+        <v>271.19435958559501</v>
+      </c>
+      <c r="G5" s="8">
+        <v>176.10648850735399</v>
+      </c>
+      <c r="H5" s="8">
+        <v>184.69673585466799</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4">
+        <v>55.109003747609499</v>
+      </c>
       <c r="D6" s="4">
-        <v>73.091914982448003</v>
+        <v>57.518752933194101</v>
       </c>
       <c r="E6" s="4">
-        <v>150.67392540020299</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+        <v>149.26520697452301</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="4">
+        <v>20.866742163165199</v>
+      </c>
+      <c r="H6" s="4">
+        <v>66.741182013587704</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6">
-        <v>-2.1871179690954302E-2</v>
+      <c r="C7" s="6">
+        <v>-1.1921143348452199</v>
+      </c>
+      <c r="D7" s="7">
+        <v>-0.58723592238934996</v>
       </c>
       <c r="E7" s="6">
-        <v>-1.3420236308675899E-2</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+        <v>-1.4633039368463101</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-19.460842961633301</v>
+      </c>
+      <c r="G7" s="6">
+        <v>-9.2332288482152602</v>
+      </c>
+      <c r="H7" s="6">
+        <v>-2.9435706388108001</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
-        <v>40.352438007295802</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-0.14334928492923399</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.8596584190239103</v>
+      </c>
+      <c r="H8" s="4">
+        <v>65.944766146644895</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="4">
-        <v>-21.542397877327002</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
-        <v>-8.7407610152129003</v>
-      </c>
-      <c r="F9" s="7">
-        <v>-59.795572856470997</v>
-      </c>
-      <c r="G9" s="4">
-        <v>-22.367418651137498</v>
+        <v>-20.212577505392002</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2.58460408701748</v>
+      </c>
+      <c r="E9" s="6">
+        <v>-9.0672965747919001</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -1929,41 +1896,67 @@
       <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="8">
-        <v>10.1060283867855</v>
-      </c>
-      <c r="F10" s="4"/>
+      <c r="C10" s="6">
+        <v>-4.5181516238922201</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-5.6864132060141896</v>
+      </c>
+      <c r="E10" s="6">
+        <v>8.7653153436554891</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="G10" s="4">
-        <v>9.8810638604447405</v>
-      </c>
-      <c r="H10" s="4"/>
+        <v>12.770815923544999</v>
+      </c>
+      <c r="H10" s="6">
+        <v>-2.3427306413354301</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4">
-        <v>-13.754289620636699</v>
-      </c>
+      <c r="C11" s="6">
+        <v>2.2944565623762201</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-3.3945348300280398</v>
+      </c>
+      <c r="E11" s="6">
+        <v>-5.8595048923623896</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="4">
+        <v>-12.7920031475307</v>
+      </c>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="C12" s="6">
+        <v>-5.0103583473460302</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-9.2262448387615503</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-2.06280214205366</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-21.938725528029799</v>
+      </c>
       <c r="H12" s="4">
-        <v>-14.6466211639409</v>
+        <v>-19.7075942019829</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/All_short_table.xlsx
+++ b/outputs/ML_Results/dist_LR/All_short_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\projects\sufficcs_mobility\outputs\ML_Results\dist_LR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADFA506-7854-4FC2-A640-3B210E739C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D45A6D-8BDD-473B-93AB-32EAD6463CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="12" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_short" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="35">
   <si>
     <t>city</t>
   </si>
@@ -690,9 +690,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -730,7 +730,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -836,7 +836,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -978,7 +978,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -988,15 +988,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1023,7 +1019,7 @@
         <v>27.309182016824199</v>
       </c>
       <c r="D2">
-        <v>3.2174103932282E-3</v>
+        <v>3.2174103932280998E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1048,10 +1044,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>209.34643195743499</v>
+        <v>209.34643195743601</v>
       </c>
       <c r="D4" s="1">
-        <v>1.02525786028157E-22</v>
+        <v>1.0252578602812699E-22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1062,10 +1058,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>55.109003747609499</v>
+        <v>55.1090037476107</v>
       </c>
       <c r="D5">
-        <v>8.5927407615900203E-2</v>
+        <v>8.5927407615896206E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1076,10 +1072,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>-1.1921143348452199</v>
+        <v>-1.19211433483985</v>
       </c>
       <c r="D6">
-        <v>0.35946429543645297</v>
+        <v>0.359464295438638</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1093,7 +1089,7 @@
         <v>-20.212577505392002</v>
       </c>
       <c r="D8">
-        <v>7.3697266460609999E-3</v>
+        <v>7.3697266460610996E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1104,10 +1100,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>-4.5181516238922201</v>
+        <v>-4.5181516238922104</v>
       </c>
       <c r="D9">
-        <v>0.18723363180345901</v>
+        <v>0.18723363180345701</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1118,10 +1114,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>2.2944565623762201</v>
+        <v>2.2944565623761601</v>
       </c>
       <c r="D10">
-        <v>0.51609950980153796</v>
+        <v>0.51609950980153896</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1132,10 +1128,10 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>-5.0103583473460302</v>
+        <v>-5.0103583473461004</v>
       </c>
       <c r="D11">
-        <v>0.34837871932308201</v>
+        <v>0.34837871932307701</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1146,10 +1142,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>10.9821613424629</v>
+        <v>10.982161342462801</v>
       </c>
       <c r="D12">
-        <v>0.469315412110412</v>
+        <v>0.469315412110416</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1160,10 +1156,10 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>91.058313443710105</v>
+        <v>91.058313443710205</v>
       </c>
       <c r="D13" s="1">
-        <v>9.2893674321154097E-7</v>
+        <v>9.2893674321153398E-7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1174,10 +1170,10 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>129.76332517072001</v>
+        <v>129.763325170722</v>
       </c>
       <c r="D14" s="1">
-        <v>4.68856547560742E-7</v>
+        <v>4.6885654755976601E-7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1188,10 +1184,10 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>57.518752933194101</v>
+        <v>57.5187529331889</v>
       </c>
       <c r="D15">
-        <v>0.125911693880706</v>
+        <v>0.125911693880705</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1202,10 +1198,10 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>-0.58723592238934996</v>
+        <v>-0.58723592238891398</v>
       </c>
       <c r="D16">
-        <v>0.56801216236253504</v>
+        <v>0.56801216236269003</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1216,10 +1212,10 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>2.58460408701748</v>
+        <v>2.5846040870174898</v>
       </c>
       <c r="D18">
-        <v>0.62601977561069799</v>
+        <v>0.62601977561069699</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1230,7 +1226,7 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>-5.6864132060141896</v>
+        <v>-5.6864132060141799</v>
       </c>
       <c r="D19">
         <v>0.435315599845707</v>
@@ -1244,10 +1240,10 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>-3.3945348300280398</v>
+        <v>-3.3945348300280598</v>
       </c>
       <c r="D20">
-        <v>0.53222386647112896</v>
+        <v>0.53222386647112796</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1258,10 +1254,10 @@
         <v>13</v>
       </c>
       <c r="C21">
-        <v>-9.2262448387615503</v>
+        <v>-9.2262448387615894</v>
       </c>
       <c r="D21">
-        <v>0.247598243917377</v>
+        <v>0.247598243917376</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1272,10 +1268,10 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>15.5748211636508</v>
+        <v>15.5748211636507</v>
       </c>
       <c r="D22">
-        <v>0.27373665386099799</v>
+        <v>0.27373665386099899</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1286,10 +1282,10 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>48.800376199190602</v>
+        <v>48.800376199190502</v>
       </c>
       <c r="D23" s="1">
-        <v>1.13520574850403E-5</v>
+        <v>1.13520574850406E-5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1300,10 +1296,10 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>116.758013572576</v>
+        <v>116.758013566127</v>
       </c>
       <c r="D24" s="1">
-        <v>1.41919913962231E-25</v>
+        <v>1.4191991541858199E-25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1314,10 +1310,10 @@
         <v>8</v>
       </c>
       <c r="C25">
-        <v>149.26520697452301</v>
+        <v>149.26520698397201</v>
       </c>
       <c r="D25" s="1">
-        <v>4.30277976573908E-10</v>
+        <v>4.3027797657403399E-10</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1328,10 +1324,10 @@
         <v>9</v>
       </c>
       <c r="C26">
-        <v>-1.4633039368463101</v>
+        <v>-1.46330393679611</v>
       </c>
       <c r="D26">
-        <v>4.2750743444906703E-2</v>
+        <v>4.2750743432777502E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1342,10 +1338,10 @@
         <v>16</v>
       </c>
       <c r="C27">
-        <v>-0.14334928492923399</v>
+        <v>-0.14334929099359101</v>
       </c>
       <c r="D27">
-        <v>0.75355836244469099</v>
+        <v>0.75355836214420002</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1359,7 +1355,7 @@
         <v>-9.0672965747919001</v>
       </c>
       <c r="D28">
-        <v>7.5438705316538002E-3</v>
+        <v>7.5438705316536996E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1370,10 +1366,10 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <v>8.7653153436554891</v>
+        <v>8.7653153436554696</v>
       </c>
       <c r="D29">
-        <v>7.9393293703582099E-2</v>
+        <v>7.9393293703583404E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1384,10 +1380,10 @@
         <v>12</v>
       </c>
       <c r="C30">
-        <v>-5.8595048923623896</v>
+        <v>-5.8595048923624402</v>
       </c>
       <c r="D30">
-        <v>0.232514613880003</v>
+        <v>0.232514613880001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1398,10 +1394,10 @@
         <v>13</v>
       </c>
       <c r="C31">
-        <v>-2.06280214205366</v>
+        <v>-2.0628021420537599</v>
       </c>
       <c r="D31">
-        <v>0.59818858859919299</v>
+        <v>0.598188588599187</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1426,10 +1422,10 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>271.19435958559501</v>
+        <v>271.194359585597</v>
       </c>
       <c r="D34">
-        <v>6.2723929023661598E-2</v>
+        <v>6.2723929023661501E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1440,10 +1436,10 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>-19.460842961633301</v>
+        <v>-19.460842961577601</v>
       </c>
       <c r="D36">
-        <v>4.92975812124095E-2</v>
+        <v>4.9297581213006703E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1454,10 +1450,10 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>24.8756504421942</v>
+        <v>24.875650442194299</v>
       </c>
       <c r="D42">
-        <v>4.0891790016919498E-2</v>
+        <v>4.08917900169187E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1471,7 +1467,7 @@
         <v>94.196940868096405</v>
       </c>
       <c r="D43" s="1">
-        <v>1.0224398613305E-16</v>
+        <v>1.02243986133048E-16</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1482,10 +1478,10 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>176.10648850735399</v>
+        <v>176.10648850739901</v>
       </c>
       <c r="D44" s="1">
-        <v>1.5271636364377799E-16</v>
+        <v>1.5271636375956199E-16</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1496,10 +1492,10 @@
         <v>8</v>
       </c>
       <c r="C45">
-        <v>20.866742163165199</v>
+        <v>20.866742163079198</v>
       </c>
       <c r="D45">
-        <v>0.50061065783310799</v>
+        <v>0.50061065783309</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1510,10 +1506,10 @@
         <v>9</v>
       </c>
       <c r="C46">
-        <v>-9.2332288482152602</v>
+        <v>-9.2332288481988201</v>
       </c>
       <c r="D46">
-        <v>5.5920093673255001E-3</v>
+        <v>5.5920093673474001E-3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1524,10 +1520,10 @@
         <v>16</v>
       </c>
       <c r="C47">
-        <v>4.8596584190239103</v>
+        <v>4.85965841744654</v>
       </c>
       <c r="D47">
-        <v>0.73082594707829596</v>
+        <v>0.73082594707929704</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1538,10 +1534,10 @@
         <v>11</v>
       </c>
       <c r="C49">
-        <v>12.770815923544999</v>
+        <v>12.7708159235452</v>
       </c>
       <c r="D49">
-        <v>2.9560925473696999E-3</v>
+        <v>2.9560925473695E-3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1555,7 +1551,7 @@
         <v>-12.7920031475307</v>
       </c>
       <c r="D50">
-        <v>5.0836936154970997E-3</v>
+        <v>5.0836936154972003E-3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1608,10 +1604,10 @@
         <v>7</v>
       </c>
       <c r="C54">
-        <v>184.69673585466799</v>
-      </c>
-      <c r="D54">
-        <v>4.2085350610931199E-5</v>
+        <v>184.69673585453501</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4.2085350611661897E-5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1622,10 +1618,10 @@
         <v>8</v>
       </c>
       <c r="C55">
-        <v>66.741182013587704</v>
+        <v>66.741182015626705</v>
       </c>
       <c r="D55">
-        <v>0.34575508017002898</v>
+        <v>0.34575508017002998</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1636,10 +1632,10 @@
         <v>9</v>
       </c>
       <c r="C56">
-        <v>-2.9435706388108001</v>
+        <v>-2.9435706388167699</v>
       </c>
       <c r="D56">
-        <v>0.375416743181056</v>
+        <v>0.37541674318011897</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1650,10 +1646,10 @@
         <v>16</v>
       </c>
       <c r="C57">
-        <v>65.944766146644895</v>
+        <v>65.944766149617607</v>
       </c>
       <c r="D57">
-        <v>0.181978261545095</v>
+        <v>0.181978261532872</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1664,10 +1660,10 @@
         <v>11</v>
       </c>
       <c r="C59">
-        <v>-2.3427306413354301</v>
+        <v>-2.3427306413354101</v>
       </c>
       <c r="D59">
-        <v>0.60139500209098895</v>
+        <v>0.60139500209098995</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1681,7 +1677,7 @@
         <v>-19.7075942019829</v>
       </c>
       <c r="D61">
-        <v>5.4448394635631898E-2</v>
+        <v>5.4448394635631503E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1694,7 +1690,7 @@
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1741,16 +1737,16 @@
         <v>27.309182016824199</v>
       </c>
       <c r="D3" s="4">
-        <v>10.9821613424629</v>
+        <v>10.982161342462801</v>
       </c>
       <c r="E3" s="4">
-        <v>15.5748211636508</v>
+        <v>15.5748211636507</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="4">
-        <v>24.8756504421942</v>
+        <v>24.875650442194299</v>
       </c>
       <c r="H3" s="4">
         <v>17.741063859894201</v>
@@ -1764,10 +1760,10 @@
         <v>73.852040169993003</v>
       </c>
       <c r="D4" s="4">
-        <v>91.058313443710105</v>
+        <v>91.058313443710205</v>
       </c>
       <c r="E4" s="4">
-        <v>48.800376199190602</v>
+        <v>48.800376199190502</v>
       </c>
       <c r="F4" s="8">
         <v>281.79805314125599</v>
@@ -1784,22 +1780,22 @@
         <v>26</v>
       </c>
       <c r="C5" s="8">
-        <v>209.34643195743499</v>
+        <v>209.34643195743601</v>
       </c>
       <c r="D5" s="8">
-        <v>129.76332517072001</v>
+        <v>129.763325170722</v>
       </c>
       <c r="E5" s="8">
-        <v>116.758013572576</v>
+        <v>116.758013566127</v>
       </c>
       <c r="F5" s="8">
-        <v>271.19435958559501</v>
+        <v>271.194359585597</v>
       </c>
       <c r="G5" s="8">
-        <v>176.10648850735399</v>
+        <v>176.10648850739901</v>
       </c>
       <c r="H5" s="8">
-        <v>184.69673585466799</v>
+        <v>184.69673585453501</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -1807,22 +1803,22 @@
         <v>27</v>
       </c>
       <c r="C6" s="4">
-        <v>55.109003747609499</v>
+        <v>55.1090037476107</v>
       </c>
       <c r="D6" s="4">
-        <v>57.518752933194101</v>
+        <v>57.5187529331889</v>
       </c>
       <c r="E6" s="4">
-        <v>149.26520697452301</v>
+        <v>149.26520698397201</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="4">
-        <v>20.866742163165199</v>
+        <v>20.866742163079198</v>
       </c>
       <c r="H6" s="4">
-        <v>66.741182013587704</v>
+        <v>66.741182015626705</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -1830,22 +1826,22 @@
         <v>28</v>
       </c>
       <c r="C7" s="6">
-        <v>-1.1921143348452199</v>
+        <v>-1.19211433483985</v>
       </c>
       <c r="D7" s="7">
-        <v>-0.58723592238934996</v>
+        <v>-0.58723592238891398</v>
       </c>
       <c r="E7" s="6">
-        <v>-1.4633039368463101</v>
+        <v>-1.46330393679611</v>
       </c>
       <c r="F7" s="6">
-        <v>-19.460842961633301</v>
+        <v>-19.460842961577601</v>
       </c>
       <c r="G7" s="6">
-        <v>-9.2332288482152602</v>
+        <v>-9.2332288481988201</v>
       </c>
       <c r="H7" s="6">
-        <v>-2.9435706388108001</v>
+        <v>-2.9435706388167699</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1859,16 +1855,16 @@
         <v>34</v>
       </c>
       <c r="E8" s="5">
-        <v>-0.14334928492923399</v>
+        <v>-0.14334929099359101</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="4">
-        <v>4.8596584190239103</v>
+        <v>4.85965841744654</v>
       </c>
       <c r="H8" s="4">
-        <v>65.944766146644895</v>
+        <v>65.944766149617607</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -1879,7 +1875,7 @@
         <v>-20.212577505392002</v>
       </c>
       <c r="D9" s="6">
-        <v>2.58460408701748</v>
+        <v>2.5846040870174898</v>
       </c>
       <c r="E9" s="6">
         <v>-9.0672965747919001</v>
@@ -1890,29 +1886,31 @@
       <c r="G9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="6">
-        <v>-4.5181516238922201</v>
+        <v>-4.5181516238922104</v>
       </c>
       <c r="D10" s="6">
-        <v>-5.6864132060141896</v>
+        <v>-5.6864132060141799</v>
       </c>
       <c r="E10" s="6">
-        <v>8.7653153436554891</v>
+        <v>8.7653153436554696</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="4">
-        <v>12.770815923544999</v>
+        <v>12.7708159235452</v>
       </c>
       <c r="H10" s="6">
-        <v>-2.3427306413354301</v>
+        <v>-2.3427306413354101</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -1920,13 +1918,13 @@
         <v>32</v>
       </c>
       <c r="C11" s="6">
-        <v>2.2944565623762201</v>
+        <v>2.2944565623761601</v>
       </c>
       <c r="D11" s="6">
-        <v>-3.3945348300280398</v>
+        <v>-3.3945348300280598</v>
       </c>
       <c r="E11" s="6">
-        <v>-5.8595048923623896</v>
+        <v>-5.8595048923624402</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>34</v>
@@ -1934,20 +1932,22 @@
       <c r="G11" s="4">
         <v>-12.7920031475307</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="6">
-        <v>-5.0103583473460302</v>
+        <v>-5.0103583473461004</v>
       </c>
       <c r="D12" s="6">
-        <v>-9.2262448387615503</v>
+        <v>-9.2262448387615894</v>
       </c>
       <c r="E12" s="6">
-        <v>-2.06280214205366</v>
+        <v>-2.0628021420537599</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>34</v>
